--- a/MSI2.PROJ2/best-models/wykresy/model4-kernel1-7-7-kernel2-7-7-.xlsx
+++ b/MSI2.PROJ2/best-models/wykresy/model4-kernel1-7-7-kernel2-7-7-.xlsx
@@ -618,38 +618,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1427,7 +1396,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1440,7 +1409,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Liczba epok</a:t>
                 </a:r>
               </a:p>
@@ -1460,7 +1429,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1498,7 +1467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1546,7 +1515,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1559,7 +1528,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Precyzja</a:t>
                 </a:r>
               </a:p>
@@ -1579,7 +1548,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1617,7 +1586,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1644,38 +1613,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1727,38 +1664,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2536,7 +2442,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2549,14 +2455,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Licba</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:rPr lang="pl-PL" sz="1050" baseline="0"/>
                   <a:t> epok</a:t>
                 </a:r>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="pl-PL" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2574,7 +2480,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2612,7 +2518,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2660,7 +2566,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2673,7 +2579,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pl-PL"/>
+                  <a:rPr lang="pl-PL" sz="1050"/>
                   <a:t>Loss</a:t>
                 </a:r>
               </a:p>
@@ -2693,7 +2599,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2731,7 +2637,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2758,38 +2664,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3951,8 +3825,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>103500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3975,16 +3849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>585788</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>65400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4732,8 +4606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
